--- a/src/test/resources/TestConfigPoints.xlsx
+++ b/src/test/resources/TestConfigPoints.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F729C4-42EF-419A-9466-08D36C77E0BD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877E32D8-4F32-4BA9-96C1-D049E8BFDC65}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
   <si>
     <t>Номер помещения</t>
   </si>
@@ -209,6 +209,15 @@
   </si>
   <si>
     <t>286</t>
+  </si>
+  <si>
+    <t>Fade Time</t>
+  </si>
+  <si>
+    <t>Controller Register</t>
+  </si>
+  <si>
+    <t>Controller Register:</t>
   </si>
 </sst>
 </file>
@@ -834,11 +843,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -849,7 +858,7 @@
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -857,7 +866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>56</v>
       </c>
@@ -865,7 +874,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -873,80 +882,100 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="12">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
+      <c r="E5" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
         <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="E7" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{223F74B7-0392-4C46-9D64-7C685346A9DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{223F74B7-0392-4C46-9D64-7C685346A9DB}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1386ADDB-8B41-479B-8360-24D6254CD3BF}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -957,7 +986,7 @@
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -965,7 +994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>56</v>
       </c>
@@ -973,7 +1002,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -981,80 +1010,100 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="12">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
+      <c r="E5" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
         <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="E7" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{CE38D225-BE73-427E-BBB3-45143B0E97E2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{CE38D225-BE73-427E-BBB3-45143B0E97E2}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11218953-FA0D-49FE-911B-9B3F6BC1BC92}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1066,7 +1115,7 @@
     <col min="5" max="5" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -1074,7 +1123,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
@@ -1082,7 +1131,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1090,66 +1139,90 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:6">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="12">
+        <v>787</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="F6" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="F7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>287</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>287</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{71379AFE-628E-44A1-A0B2-04050D602843}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D1048576" xr:uid="{71379AFE-628E-44A1-A0B2-04050D602843}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
